--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="148">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,15 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>defective</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
     <t>stopped</t>
   </si>
   <si>
@@ -61,388 +61,397 @@
     <t>returned</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>broken</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>work</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>size</t>
   </si>
   <si>
     <t>would</t>
@@ -806,7 +815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -814,10 +823,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -875,13 +884,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -893,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -917,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -925,13 +934,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7826086956521739</v>
+        <v>0.725</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -943,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.9140625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -967,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -975,13 +984,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -993,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K5">
-        <v>0.8591331269349846</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L5">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="M5">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1017,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1025,13 +1034,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1043,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1067,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1096,16 +1105,16 @@
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.7402597402597403</v>
+        <v>0.7571428571428571</v>
       </c>
       <c r="L7">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="M7">
-        <v>171</v>
+        <v>53</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1117,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1125,37 +1134,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4883720930232558</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C8">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>63</v>
       </c>
-      <c r="D8">
-        <v>63</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>66</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.7389830508474576</v>
+        <v>0.7445887445887446</v>
       </c>
       <c r="L8">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="M8">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1167,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1175,13 +1184,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4646464646464646</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1193,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.6883116883116883</v>
+        <v>0.7402597402597403</v>
       </c>
       <c r="L9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1217,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1225,13 +1234,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.3717948717948718</v>
+        <v>0.48</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1243,19 +1252,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.6861958266452648</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L10">
-        <v>855</v>
+        <v>206</v>
       </c>
       <c r="M10">
-        <v>855</v>
+        <v>206</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1267,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>391</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1275,13 +1284,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1293,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.6712328767123288</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1317,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1325,13 +1334,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.288135593220339</v>
+        <v>0.3269230769230769</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1343,19 +1352,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.6590909090909091</v>
+        <v>0.6771084337349398</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>843</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>844</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1364,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1375,13 +1384,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.25</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1393,19 +1402,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.6551724137931034</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1417,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1425,13 +1434,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2233009708737864</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1443,19 +1452,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.647887323943662</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1467,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1475,13 +1484,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2054054054054054</v>
+        <v>0.2</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1493,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.640625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1517,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1525,37 +1534,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1443298969072165</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.6029411764705882</v>
+        <v>0.625</v>
       </c>
       <c r="L16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1567,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1575,13 +1584,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1351351351351351</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1593,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.6024096385542169</v>
+        <v>0.6114285714285714</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1617,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1625,37 +1634,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.05084745762711865</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E18">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.51</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18">
+        <v>0.5774647887323944</v>
+      </c>
+      <c r="L18">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>0.6</v>
-      </c>
-      <c r="L18">
-        <v>27</v>
-      </c>
       <c r="M18">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1667,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1675,219 +1684,363 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02475928473177441</v>
+        <v>0.160377358490566</v>
       </c>
       <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>89</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19">
+        <v>0.5769230769230769</v>
+      </c>
+      <c r="L19">
+        <v>60</v>
+      </c>
+      <c r="M19">
+        <v>60</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.1554054054054054</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>125</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>0.5641025641025641</v>
+      </c>
+      <c r="L20">
+        <v>66</v>
+      </c>
+      <c r="M20">
+        <v>66</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.1415929203539823</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="D21">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>97</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>0.5625</v>
+      </c>
+      <c r="L21">
+        <v>27</v>
+      </c>
+      <c r="M21">
+        <v>27</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.1391752577319588</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>0.04</v>
+      </c>
+      <c r="F22">
+        <v>0.96</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>167</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
+        <v>0.5394736842105263</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.05614035087719298</v>
+      </c>
+      <c r="C23">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>0.36</v>
+      </c>
+      <c r="F23">
+        <v>0.64</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>269</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.5384615384615384</v>
+      </c>
+      <c r="L23">
+        <v>35</v>
+      </c>
+      <c r="M23">
+        <v>35</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.02455661664392906</v>
+      </c>
+      <c r="C24">
         <v>18</v>
       </c>
-      <c r="D19">
-        <v>58</v>
-      </c>
-      <c r="E19">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F19">
-        <v>0.3100000000000001</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>709</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.6</v>
-      </c>
-      <c r="L19">
-        <v>42</v>
-      </c>
-      <c r="M19">
-        <v>42</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="D24">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>0.65</v>
+      </c>
+      <c r="F24">
+        <v>0.35</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>715</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.5329341317365269</v>
+      </c>
+      <c r="L24">
+        <v>89</v>
+      </c>
+      <c r="M24">
+        <v>89</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.01445086705202312</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>134</v>
+      </c>
+      <c r="E25">
+        <v>0.89</v>
+      </c>
+      <c r="F25">
+        <v>0.11</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1023</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="L25">
+        <v>29</v>
+      </c>
+      <c r="M25">
+        <v>29</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.5865384615384616</v>
-      </c>
-      <c r="L20">
-        <v>61</v>
-      </c>
-      <c r="M20">
-        <v>61</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>0.5828571428571429</v>
-      </c>
-      <c r="L21">
-        <v>102</v>
-      </c>
-      <c r="M21">
-        <v>102</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>0.5789473684210527</v>
-      </c>
-      <c r="L22">
-        <v>44</v>
-      </c>
-      <c r="M22">
-        <v>44</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
-        <v>0.5726495726495726</v>
-      </c>
-      <c r="L23">
-        <v>67</v>
-      </c>
-      <c r="M23">
-        <v>67</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>0.5688622754491018</v>
-      </c>
-      <c r="L24">
-        <v>95</v>
-      </c>
-      <c r="M24">
-        <v>95</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25">
-        <v>0.5434782608695652</v>
-      </c>
-      <c r="L25">
-        <v>25</v>
-      </c>
-      <c r="M25">
-        <v>25</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5416666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>22</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5138888888888888</v>
+        <v>0.49</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5076923076923077</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1951,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5037593984962406</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L29">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1977,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.4814814814814815</v>
+        <v>0.4661654135338346</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2003,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.4736842105263158</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2029,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.4578313253012048</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L32">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2055,47 +2208,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>90</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.4496314496314496</v>
+        <v>0.428921568627451</v>
       </c>
       <c r="L33">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M33">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4489795918367347</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2107,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4285714285714285</v>
+        <v>0.4280155642023346</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2133,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K36">
-        <v>0.424124513618677</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L36">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2159,21 +2312,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>148</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K37">
-        <v>0.4102564102564102</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2185,21 +2338,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K38">
-        <v>0.41</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="L38">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2211,21 +2364,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>59</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="K39">
-        <v>0.4098360655737705</v>
+        <v>0.4054794520547945</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="M39">
-        <v>25</v>
+        <v>296</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2237,21 +2390,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>36</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K40">
-        <v>0.4041095890410959</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="L40">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2263,21 +2416,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>435</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K41">
-        <v>0.3902439024390244</v>
+        <v>0.3759398496240601</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2289,73 +2442,73 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K42">
-        <v>0.3873873873873874</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L42">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M42">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>0.3855421686746988</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L43">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K44">
-        <v>0.3846153846153846</v>
+        <v>0.354066985645933</v>
       </c>
       <c r="L44">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="M44">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2367,21 +2520,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>40</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K45">
-        <v>0.3815789473684211</v>
+        <v>0.3443708609271523</v>
       </c>
       <c r="L45">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M45">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2393,21 +2546,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="K46">
-        <v>0.3571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L46">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2419,21 +2572,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="K47">
-        <v>0.354066985645933</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L47">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2445,21 +2598,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>135</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.3525179856115108</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L48">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M48">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2471,21 +2624,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="K49">
-        <v>0.3492063492063492</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2497,21 +2650,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="K50">
-        <v>0.3377483443708609</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L50">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="M50">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2523,21 +2676,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>100</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.3333333333333333</v>
+        <v>0.310010764262648</v>
       </c>
       <c r="L51">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="M51">
-        <v>17</v>
+        <v>288</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2549,21 +2702,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>34</v>
+        <v>641</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="K52">
-        <v>0.3308270676691729</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="L52">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M52">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2575,41 +2728,41 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K53">
-        <v>0.3260869565217391</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>31</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K54">
-        <v>0.3260869565217391</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="L54">
         <v>15</v>
@@ -2627,21 +2780,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K55">
-        <v>0.3196986006458558</v>
+        <v>0.28125</v>
       </c>
       <c r="L55">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>297</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2653,47 +2806,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>632</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K56">
-        <v>0.3069306930693069</v>
+        <v>0.2809278350515464</v>
       </c>
       <c r="L56">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="M56">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>70</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K57">
-        <v>0.3050397877984085</v>
+        <v>0.280794701986755</v>
       </c>
       <c r="L57">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="M57">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2702,24 +2855,24 @@
         <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K58">
-        <v>0.2972972972972973</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2731,21 +2884,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K59">
-        <v>0.2903225806451613</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2757,151 +2910,151 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K60">
-        <v>0.2879177377892031</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L60">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="M60">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="N60">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>554</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K61">
-        <v>0.287037037037037</v>
+        <v>0.2515723270440252</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>77</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K62">
-        <v>0.2666666666666667</v>
+        <v>0.2505494505494505</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>44</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K63">
-        <v>0.2635135135135135</v>
+        <v>0.2405405405405406</v>
       </c>
       <c r="L63">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="M63">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N63">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>109</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K64">
-        <v>0.25</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K65">
-        <v>0.2476489028213166</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L65">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="M65">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2913,21 +3066,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K66">
-        <v>0.2424242424242424</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="L66">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2939,21 +3092,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K67">
-        <v>0.2352941176470588</v>
+        <v>0.2219570405727924</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2965,47 +3118,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>52</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K68">
-        <v>0.2326139088729017</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="L68">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="N68">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>320</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K69">
-        <v>0.2258771929824561</v>
+        <v>0.2134146341463415</v>
       </c>
       <c r="L69">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="M69">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3017,21 +3170,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>353</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K70">
-        <v>0.2235294117647059</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3043,134 +3196,134 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K71">
-        <v>0.22</v>
+        <v>0.2070707070707071</v>
       </c>
       <c r="L71">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M71">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>78</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K72">
-        <v>0.2173913043478261</v>
+        <v>0.1918819188191882</v>
       </c>
       <c r="L72">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="M72">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>288</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K73">
-        <v>0.2095238095238095</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="M73">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>83</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K74">
-        <v>0.2027334851936219</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L74">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M74">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="N74">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>350</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K75">
-        <v>0.201219512195122</v>
+        <v>0.1863354037267081</v>
       </c>
       <c r="L75">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M75">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
         <v>131</v>
@@ -3178,42 +3331,42 @@
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K76">
-        <v>0.1992619926199262</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L76">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M76">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="N76">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>217</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K77">
-        <v>0.1984732824427481</v>
+        <v>0.1807228915662651</v>
       </c>
       <c r="L77">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M77">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3225,73 +3378,73 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K78">
-        <v>0.1965811965811966</v>
+        <v>0.1799544419134396</v>
       </c>
       <c r="L78">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="M78">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>94</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="K79">
-        <v>0.1964285714285714</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="L79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N79">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K80">
-        <v>0.1962962962962963</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="L80">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M80">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3303,21 +3456,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K81">
-        <v>0.1931818181818182</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3334,146 +3487,146 @@
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K82">
-        <v>0.1878048780487805</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L82">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>333</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K83">
-        <v>0.1847826086956522</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L83">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M83">
         <v>17</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="K84">
-        <v>0.1827586206896552</v>
+        <v>0.1701388888888889</v>
       </c>
       <c r="L84">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M84">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N84">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O84">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P84" t="b">
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K85">
+        <v>0.1692307692307692</v>
+      </c>
+      <c r="L85">
+        <v>22</v>
+      </c>
+      <c r="M85">
+        <v>22</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
         <v>108</v>
-      </c>
-      <c r="K85">
-        <v>0.1807228915662651</v>
-      </c>
-      <c r="L85">
-        <v>15</v>
-      </c>
-      <c r="M85">
-        <v>15</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>68</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K86">
-        <v>0.1791044776119403</v>
+        <v>0.1634146341463415</v>
       </c>
       <c r="L86">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M86">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="N86">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O86">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>165</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K87">
-        <v>0.1764705882352941</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L87">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M87">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3485,21 +3638,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K88">
-        <v>0.1596638655462185</v>
+        <v>0.1603053435114504</v>
       </c>
       <c r="L88">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M88">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3511,21 +3664,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>200</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K89">
-        <v>0.1557377049180328</v>
+        <v>0.1584699453551913</v>
       </c>
       <c r="L89">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M89">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3537,47 +3690,47 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>103</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K90">
-        <v>0.15527950310559</v>
+        <v>0.1575757575757576</v>
       </c>
       <c r="L90">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M90">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N90">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K91">
-        <v>0.1538461538461539</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L91">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3589,125 +3742,125 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K92">
-        <v>0.1496062992125984</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="L92">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M92">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N92">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K93">
-        <v>0.144</v>
+        <v>0.15</v>
       </c>
       <c r="L93">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M93">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N93">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K94">
-        <v>0.1384615384615385</v>
+        <v>0.1456953642384106</v>
       </c>
       <c r="L94">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M94">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K95">
-        <v>0.1363636363636364</v>
+        <v>0.1373831775700935</v>
       </c>
       <c r="L95">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="M95">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>133</v>
+        <v>923</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K96">
-        <v>0.1355932203389831</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L96">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M96">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3719,683 +3872,605 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>153</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K97">
-        <v>0.1328671328671329</v>
+        <v>0.1205164992826399</v>
       </c>
       <c r="L97">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="M97">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="N97">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O97">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>124</v>
+        <v>613</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="K98">
-        <v>0.1327561327561328</v>
+        <v>0.12</v>
       </c>
       <c r="L98">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="M98">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="N98">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="O98">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>601</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K99">
-        <v>0.1311475409836066</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L99">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="M99">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q99">
-        <v>318</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K100">
-        <v>0.1256830601092896</v>
+        <v>0.1161290322580645</v>
       </c>
       <c r="L100">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="M100">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N100">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="O100">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K101">
-        <v>0.1173708920187793</v>
+        <v>0.1119402985074627</v>
       </c>
       <c r="L101">
-        <v>125</v>
+        <v>15</v>
       </c>
       <c r="M101">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="N101">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O101">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>940</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K102">
-        <v>0.1169354838709677</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="L102">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M102">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O102">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <v>219</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K103">
-        <v>0.1139240506329114</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="L103">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="M103">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N103">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O103">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K104">
-        <v>0.1091954022988506</v>
+        <v>0.108843537414966</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M104">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N104">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O104">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>155</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="K105">
-        <v>0.1090909090909091</v>
+        <v>0.1042031523642732</v>
       </c>
       <c r="L105">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="M105">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>147</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K106">
-        <v>0.1067961165048544</v>
+        <v>0.09851301115241635</v>
       </c>
       <c r="L106">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M106">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="N106">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="O106">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>184</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K107">
-        <v>0.1052631578947368</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="L107">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N107">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O107">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>136</v>
+        <v>187</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K108">
-        <v>0.1039301310043668</v>
+        <v>0.09191176470588236</v>
       </c>
       <c r="L108">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="M108">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="N108">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O108">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>1026</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K109">
-        <v>0.09926470588235294</v>
+        <v>0.08897485493230174</v>
       </c>
       <c r="L109">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M109">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O109">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109">
-        <v>245</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K110">
-        <v>0.09444444444444444</v>
+        <v>0.0856353591160221</v>
       </c>
       <c r="L110">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="M110">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="N110">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O110">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P110" t="b">
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>489</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K111">
-        <v>0.08897485493230174</v>
+        <v>0.08439897698209718</v>
       </c>
       <c r="L111">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="M111">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="N111">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="O111">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>471</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K112">
-        <v>0.0872093023255814</v>
+        <v>0.08205128205128205</v>
       </c>
       <c r="L112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M112">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N112">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="O112">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>157</v>
+        <v>179</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K113">
-        <v>0.08287292817679558</v>
+        <v>0.08068459657701711</v>
       </c>
       <c r="L113">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M113">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="N113">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="O113">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="P113" t="b">
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>332</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K114">
-        <v>0.07969151670951156</v>
+        <v>0.06484641638225255</v>
       </c>
       <c r="L114">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M114">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N114">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="O114">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="P114" t="b">
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>358</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K115">
-        <v>0.06862745098039216</v>
+        <v>0.05</v>
       </c>
       <c r="L115">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M115">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N115">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="O115">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="P115" t="b">
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>380</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K116">
-        <v>0.06751054852320675</v>
+        <v>0.04941860465116279</v>
       </c>
       <c r="L116">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M116">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N116">
-        <v>0.89</v>
+        <v>0.55</v>
       </c>
       <c r="O116">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="P116" t="b">
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>221</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="K117">
-        <v>0.0547945205479452</v>
+        <v>0.04539385847797063</v>
       </c>
       <c r="L117">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M117">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N117">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="O117">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>276</v>
+        <v>715</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="K118">
-        <v>0.0534045393858478</v>
+        <v>0.04456824512534819</v>
       </c>
       <c r="L118">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M118">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="N118">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="O118">
-        <v>0.3100000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="P118" t="b">
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>709</v>
+        <v>343</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K119">
-        <v>0.05278592375366569</v>
+        <v>0.02606310013717421</v>
       </c>
       <c r="L119">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M119">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N119">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="O119">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="120" spans="10:17">
-      <c r="J120" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K120">
-        <v>0.05172413793103448</v>
-      </c>
-      <c r="L120">
-        <v>18</v>
-      </c>
-      <c r="M120">
-        <v>28</v>
-      </c>
-      <c r="N120">
-        <v>0.64</v>
-      </c>
-      <c r="O120">
-        <v>0.36</v>
-      </c>
-      <c r="P120" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q120">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="121" spans="10:17">
-      <c r="J121" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K121">
-        <v>0.04815864022662889</v>
-      </c>
-      <c r="L121">
-        <v>17</v>
-      </c>
-      <c r="M121">
-        <v>35</v>
-      </c>
-      <c r="N121">
-        <v>0.49</v>
-      </c>
-      <c r="O121">
-        <v>0.51</v>
-      </c>
-      <c r="P121" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q121">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="122" spans="10:17">
-      <c r="J122" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K122">
-        <v>0.02747252747252747</v>
-      </c>
-      <c r="L122">
-        <v>20</v>
-      </c>
-      <c r="M122">
-        <v>27</v>
-      </c>
-      <c r="N122">
-        <v>0.74</v>
-      </c>
-      <c r="O122">
-        <v>0.26</v>
-      </c>
-      <c r="P122" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q122">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
